--- a/biology/Botanique/Square_Gustave-Mesureur/Square_Gustave-Mesureur.xlsx
+++ b/biology/Botanique/Square_Gustave-Mesureur/Square_Gustave-Mesureur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Gustave-Mesureur est un square du 13e arrondissement de Paris, dans le quartier de la Salpêtrière.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est accessible par le 105, rue Jeanne-d'Arc et par la place Pinel.
 Il est desservi par la ligne 6 à la station Nationale.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il rend hommage à Gustave Mesureur (1847-1925), un homme politique français qui fut ministre du Commerce, de l'Industrie, des Postes et Télécommunications de 1895 à 1896 sous le gouvernement Léon Bourgeois.
 			Hommage à La Nueve.
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est ouvert en 1982.
 </t>
